--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CAF13B-A089-40FB-817F-6DEBB1EB9D56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9B28E6-423A-411E-9757-EF5054D452A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="68">
   <si>
     <t>Test_Mosfets</t>
   </si>
@@ -282,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -290,7 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -574,7 +573,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +638,7 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
@@ -788,7 +787,7 @@
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E16" t="s">
